--- a/data/trans_orig/P1805-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8968D1-F1CA-42D1-A288-77BED9D2BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB39EC21-D57F-4F18-8F26-F454C5D07B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC4FB2E8-3223-4291-B5B9-D54B8CB91186}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38F8FAD3-3DDD-4620-B7D0-ED0CB9E0F295}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="324">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,28 +141,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,69%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -171,16 +174,19 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,53%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -189,775 +195,817 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>95,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -1372,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6609AA-42EC-45C5-8A5A-C544A5BA4BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD30A101-433D-4DD2-B2F5-9938DAA10B5E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,10 +1732,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,13 +1750,13 @@
         <v>500542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -1717,13 +1765,13 @@
         <v>516997</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -1732,13 +1780,13 @@
         <v>1017539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,7 +1842,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1806,13 +1854,13 @@
         <v>5204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1821,13 +1869,13 @@
         <v>15009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1836,13 +1884,13 @@
         <v>20213</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1905,13 @@
         <v>313361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -1872,13 +1920,13 @@
         <v>321300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>649</v>
@@ -1887,13 +1935,13 @@
         <v>634661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1997,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1961,13 +2009,13 @@
         <v>9234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1976,13 +2024,13 @@
         <v>12572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1991,13 +2039,13 @@
         <v>21807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2060,13 @@
         <v>360730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>346</v>
@@ -2027,13 +2075,13 @@
         <v>374711</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -2042,13 +2090,13 @@
         <v>735440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2152,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2164,13 @@
         <v>6416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2131,13 +2179,13 @@
         <v>3736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2146,13 +2194,13 @@
         <v>10152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2215,13 @@
         <v>204805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -2182,13 +2230,13 @@
         <v>214851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -2197,13 +2245,13 @@
         <v>419656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2307,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2319,13 @@
         <v>2971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2286,13 +2334,13 @@
         <v>10569</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2301,13 +2349,13 @@
         <v>13540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2370,13 @@
         <v>260152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -2337,13 +2385,13 @@
         <v>262546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -2352,13 +2400,13 @@
         <v>522698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2462,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2426,13 +2474,13 @@
         <v>6501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2441,13 +2489,13 @@
         <v>23601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2456,13 +2504,13 @@
         <v>30101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2525,13 @@
         <v>650057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2492,13 +2540,13 @@
         <v>667693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1200</v>
@@ -2507,13 +2555,13 @@
         <v>1317751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,7 +2617,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2581,13 +2629,13 @@
         <v>17958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2596,13 +2644,13 @@
         <v>38372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -2611,13 +2659,13 @@
         <v>56329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2680,13 @@
         <v>760625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>723</v>
@@ -2647,13 +2695,13 @@
         <v>787795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1455</v>
@@ -2662,13 +2710,13 @@
         <v>1548421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2784,13 @@
         <v>61063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -2751,13 +2799,13 @@
         <v>130939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -2766,13 +2814,13 @@
         <v>192002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2835,13 @@
         <v>3333287</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>3221</v>
@@ -2802,13 +2850,13 @@
         <v>3413603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="M29" s="7">
         <v>6393</v>
@@ -2817,13 +2865,13 @@
         <v>6746890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2927,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0FEDB-A8D3-44EC-8E7C-83BB980186DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB461BE6-4DAD-4BA3-84DE-C10A38A2CDA7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2920,7 +2968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3027,13 +3075,13 @@
         <v>3122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3042,13 +3090,13 @@
         <v>7326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3057,13 +3105,13 @@
         <v>10449</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3126,13 @@
         <v>257176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>522</v>
@@ -3093,13 +3141,13 @@
         <v>264077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>850</v>
@@ -3108,13 +3156,13 @@
         <v>521251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3230,13 @@
         <v>20558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3197,13 +3245,13 @@
         <v>23046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3212,13 +3260,13 @@
         <v>43605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3281,13 @@
         <v>498739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>689</v>
@@ -3248,13 +3296,13 @@
         <v>530170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -3263,13 +3311,13 @@
         <v>1028909</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3373,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3337,13 +3385,13 @@
         <v>9500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3352,13 +3400,13 @@
         <v>20263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3367,13 +3415,13 @@
         <v>29764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3436,13 @@
         <v>312740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -3403,13 +3451,13 @@
         <v>353021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>856</v>
@@ -3418,13 +3466,13 @@
         <v>665760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3528,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3492,13 +3540,13 @@
         <v>21122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3507,13 +3555,13 @@
         <v>23715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3522,13 +3570,13 @@
         <v>44837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3591,13 @@
         <v>301118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>569</v>
@@ -3558,13 +3606,13 @@
         <v>404841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>844</v>
@@ -3573,13 +3621,13 @@
         <v>705959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3683,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3647,13 +3695,13 @@
         <v>1511</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3662,13 +3710,13 @@
         <v>3575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3677,13 +3725,13 @@
         <v>5086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3746,13 @@
         <v>195237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>484</v>
@@ -3713,13 +3761,13 @@
         <v>228328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -3728,13 +3776,13 @@
         <v>423565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3838,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3802,13 +3850,13 @@
         <v>7406</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3817,13 +3865,13 @@
         <v>9347</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3832,13 +3880,13 @@
         <v>16754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3901,13 @@
         <v>269817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>443</v>
@@ -3868,13 +3916,13 @@
         <v>266275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>804</v>
@@ -3883,13 +3931,13 @@
         <v>536091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3993,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3957,13 +4005,13 @@
         <v>30822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -3972,13 +4020,13 @@
         <v>48941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -3987,13 +4035,13 @@
         <v>79763</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4056,13 @@
         <v>596932</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>907</v>
@@ -4023,13 +4071,13 @@
         <v>755262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>1484</v>
@@ -4038,13 +4086,13 @@
         <v>1352194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4148,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4112,13 +4160,13 @@
         <v>20505</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4127,13 +4175,13 @@
         <v>22204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4142,13 +4190,13 @@
         <v>42709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4211,13 @@
         <v>838923</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>1033</v>
@@ -4178,13 +4226,13 @@
         <v>846230</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1777</v>
@@ -4193,13 +4241,13 @@
         <v>1685153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4315,13 @@
         <v>114547</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>209</v>
@@ -4282,13 +4330,13 @@
         <v>158418</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>304</v>
@@ -4297,13 +4345,13 @@
         <v>272965</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4366,13 @@
         <v>3270681</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>5153</v>
@@ -4333,13 +4381,13 @@
         <v>3648204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>8434</v>
@@ -4348,13 +4396,13 @@
         <v>6918885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4458,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB39EC21-D57F-4F18-8F26-F454C5D07B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E027ACF9-9892-4AFF-8106-0B2A9568D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38F8FAD3-3DDD-4620-B7D0-ED0CB9E0F295}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDEE3796-23FE-4BBE-B939-3B3D25FBB1E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="324">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="320">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,825 +75,825 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
     <t>94,43%</t>
   </si>
   <si>
@@ -975,15 +975,9 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
     <t>96,62%</t>
   </si>
   <si>
@@ -1000,12 +994,6 @@
   </si>
   <si>
     <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -1420,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD30A101-433D-4DD2-B2F5-9938DAA10B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A7DD7-596E-4138-A113-A0CB25B4B35C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2194,13 +2182,13 @@
         <v>10152</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2203,13 @@
         <v>204805</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -2230,13 +2218,13 @@
         <v>214851</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -2245,13 +2233,13 @@
         <v>419656</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2295,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2319,13 +2307,13 @@
         <v>2971</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2334,13 +2322,13 @@
         <v>10569</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2349,13 +2337,13 @@
         <v>13540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2358,13 @@
         <v>260152</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -2385,13 +2373,13 @@
         <v>262546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -2400,13 +2388,13 @@
         <v>522698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,7 +2450,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2474,13 +2462,13 @@
         <v>6501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2489,13 +2477,13 @@
         <v>23601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2504,13 +2492,13 @@
         <v>30101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2513,13 @@
         <v>650057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2540,13 +2528,13 @@
         <v>667693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1200</v>
@@ -2555,13 +2543,13 @@
         <v>1317751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2605,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2629,13 +2617,13 @@
         <v>17958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2644,13 +2632,13 @@
         <v>38372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -2659,13 +2647,13 @@
         <v>56329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2668,13 @@
         <v>760625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>723</v>
@@ -2695,13 +2683,13 @@
         <v>787795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1455</v>
@@ -2710,13 +2698,13 @@
         <v>1548421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2772,13 @@
         <v>61063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -2799,13 +2787,13 @@
         <v>130939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="M28" s="7">
         <v>176</v>
@@ -2814,13 +2802,13 @@
         <v>192002</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2823,13 @@
         <v>3333287</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>3221</v>
@@ -2850,13 +2838,13 @@
         <v>3413603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>6393</v>
@@ -2865,13 +2853,13 @@
         <v>6746890</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2915,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB461BE6-4DAD-4BA3-84DE-C10A38A2CDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A52BCE-5537-4BB2-A912-F536307DB1D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2968,7 +2956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3075,13 +3063,13 @@
         <v>3122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3090,13 +3078,13 @@
         <v>7326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3105,13 +3093,13 @@
         <v>10449</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3114,13 @@
         <v>257176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>522</v>
@@ -3141,13 +3129,13 @@
         <v>264077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7">
         <v>850</v>
@@ -3156,13 +3144,13 @@
         <v>521251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3218,13 @@
         <v>20558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3245,13 +3233,13 @@
         <v>23046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3260,13 +3248,13 @@
         <v>43605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3269,13 @@
         <v>498739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>689</v>
@@ -3296,13 +3284,13 @@
         <v>530170</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -3311,13 +3299,13 @@
         <v>1028909</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3373,13 @@
         <v>9500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3400,13 +3388,13 @@
         <v>20263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3415,13 +3403,13 @@
         <v>29764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3424,13 @@
         <v>312740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -3451,13 +3439,13 @@
         <v>353021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>856</v>
@@ -3466,13 +3454,13 @@
         <v>665760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3528,13 @@
         <v>21122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3555,13 +3543,13 @@
         <v>23715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3570,13 +3558,13 @@
         <v>44837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3579,13 @@
         <v>301118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>569</v>
@@ -3606,13 +3594,13 @@
         <v>404841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>844</v>
@@ -3621,13 +3609,13 @@
         <v>705959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3683,13 @@
         <v>1511</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3710,13 +3698,13 @@
         <v>3575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3725,13 +3713,13 @@
         <v>5086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,10 +3734,10 @@
         <v>195237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>43</v>
@@ -3761,13 +3749,13 @@
         <v>228328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -3776,13 +3764,13 @@
         <v>423565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3826,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3850,13 +3838,13 @@
         <v>7406</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3865,13 +3853,13 @@
         <v>9347</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3880,13 +3868,13 @@
         <v>16754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3889,13 @@
         <v>269817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>443</v>
@@ -3916,13 +3904,13 @@
         <v>266275</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>804</v>
@@ -3931,13 +3919,13 @@
         <v>536091</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4005,13 +3993,13 @@
         <v>30822</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -4020,13 +4008,13 @@
         <v>48941</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -4035,13 +4023,13 @@
         <v>79763</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4044,13 @@
         <v>596932</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>907</v>
@@ -4071,13 +4059,13 @@
         <v>755262</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>1484</v>
@@ -4148,7 +4136,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4345,13 +4333,13 @@
         <v>272965</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4354,13 @@
         <v>3270681</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>5153</v>
@@ -4381,13 +4369,13 @@
         <v>3648204</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>8434</v>
@@ -4396,13 +4384,13 @@
         <v>6918885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4446,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F6A475-0AE3-4193-8C98-5A0F8B9924F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0384A3F3-D738-48DF-A915-85D142E4FC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE6EE61-3062-4B63-B459-E9A9D2C59658}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6408D178-8F8C-49D6-8D56-F065E54613F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="389">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -761,448 +782,430 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>96,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CB647B-07A5-4730-84BE-01C8896FD2C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343D95A-92FD-45FA-8A75-DB0B1C356075}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3383,7 +3386,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -3398,7 +3401,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -3413,7 +3416,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3536,7 +3539,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3551,7 +3554,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3566,7 +3569,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3604,7 +3607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319390D9-90BD-4DBF-AF1F-2E0CC6838A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B055064-B4AE-4636-91BD-2BD2A962AA6B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3722,43 +3725,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,41 +3778,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,41 +3829,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,43 +3878,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3982,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4033,7 +4060,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4119,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4134,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -4173,7 +4200,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4188,7 +4215,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4224,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4239,7 +4266,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4316,46 +4343,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4379,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4394,7 +4421,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4409,7 +4436,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4457,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4445,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4460,7 +4487,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,10 +4496,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4484,10 +4511,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4499,10 +4526,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4531,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4546,7 +4573,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4585,7 +4612,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4600,7 +4627,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4636,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4651,7 +4678,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4737,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4791,7 +4818,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4842,7 +4869,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4973,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5027,7 +5054,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,7 +5176,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -5164,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -5203,7 +5230,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5218,7 +5245,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5254,7 +5281,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5269,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5570,7 +5597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE427A2-E618-44F5-A352-FB677BF3FC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F010D2C5-68E8-48AC-80C1-9BFB8647E421}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5587,7 +5614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5715,7 +5742,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5730,7 +5757,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5772,13 @@
         <v>10746</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5760,13 +5787,13 @@
         <v>20993</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -5775,13 +5802,13 @@
         <v>31739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5823,13 @@
         <v>283015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>257</v>
@@ -5811,13 +5838,13 @@
         <v>267710</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>513</v>
@@ -5826,13 +5853,13 @@
         <v>550725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5933,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5921,7 +5948,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5951,13 +5978,13 @@
         <v>2033</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5966,13 +5993,13 @@
         <v>6087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5981,13 +6008,13 @@
         <v>8120</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,10 +6029,10 @@
         <v>500542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -6017,10 +6044,10 @@
         <v>516997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>25</v>
@@ -6032,10 +6059,10 @@
         <v>1017539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -6127,7 +6154,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6142,7 +6169,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6184,13 @@
         <v>5204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -6172,13 +6199,13 @@
         <v>15009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -6187,13 +6214,13 @@
         <v>20213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6235,13 @@
         <v>313361</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -6223,13 +6250,13 @@
         <v>321300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
@@ -6238,13 +6265,13 @@
         <v>634661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,7 +6345,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6348,7 +6375,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6390,13 @@
         <v>9234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6378,13 +6405,13 @@
         <v>12572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -6393,13 +6420,13 @@
         <v>21807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6441,13 @@
         <v>360730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H18" s="7">
         <v>346</v>
@@ -6429,13 +6456,13 @@
         <v>374711</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>691</v>
@@ -6444,13 +6471,13 @@
         <v>735440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6551,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6539,7 +6566,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6554,7 +6581,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6596,13 @@
         <v>6416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6584,13 +6611,13 @@
         <v>3736</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6599,13 +6626,13 @@
         <v>10152</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6647,13 @@
         <v>204805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -6635,13 +6662,13 @@
         <v>214851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>425</v>
@@ -6650,13 +6677,13 @@
         <v>419656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6757,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6745,7 +6772,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6775,13 +6802,13 @@
         <v>2971</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6790,13 +6817,13 @@
         <v>10569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6805,13 +6832,13 @@
         <v>13540</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,10 +6853,10 @@
         <v>260152</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>11</v>
@@ -6841,13 +6868,13 @@
         <v>262546</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>509</v>
@@ -6856,13 +6883,13 @@
         <v>522698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6963,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6981,13 +7008,13 @@
         <v>6501</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -6996,13 +7023,13 @@
         <v>23601</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -7011,13 +7038,13 @@
         <v>30101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,10 +7059,10 @@
         <v>650057</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>53</v>
@@ -7047,13 +7074,13 @@
         <v>667693</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>1200</v>
@@ -7062,13 +7089,13 @@
         <v>1317751</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,7 +7184,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7187,13 +7214,13 @@
         <v>17958</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H33" s="7">
         <v>32</v>
@@ -7202,13 +7229,13 @@
         <v>38372</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7">
         <v>50</v>
@@ -7217,13 +7244,13 @@
         <v>56329</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7265,13 @@
         <v>760625</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>723</v>
@@ -7253,13 +7280,13 @@
         <v>787795</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>1455</v>
@@ -7268,13 +7295,13 @@
         <v>1548421</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7420,13 @@
         <v>61063</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>117</v>
@@ -7408,13 +7435,13 @@
         <v>130939</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>176</v>
@@ -7423,13 +7450,13 @@
         <v>192002</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7471,13 @@
         <v>3333287</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H38" s="7">
         <v>3221</v>
@@ -7459,13 +7486,13 @@
         <v>3413603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7">
         <v>6393</v>
@@ -7474,13 +7501,13 @@
         <v>6746890</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,7 +7587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B27A1B-F2CA-43FE-83A5-0520B22F8F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB272166-E35D-459F-82B0-AE74C8503F6A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7577,7 +7604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7690,7 +7717,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7720,7 +7747,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,46 +7759,46 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>3122</v>
+        <v>3691</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>7326</v>
+        <v>7734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>10449</v>
+        <v>11425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7810,13 @@
         <v>328</v>
       </c>
       <c r="D6" s="7">
-        <v>257176</v>
+        <v>307752</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>11</v>
@@ -7798,31 +7825,31 @@
         <v>522</v>
       </c>
       <c r="I6" s="7">
-        <v>264077</v>
+        <v>281901</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>850</v>
       </c>
       <c r="N6" s="7">
-        <v>521251</v>
+        <v>589652</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,7 +7861,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7849,7 +7876,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7864,7 +7891,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -7911,7 +7938,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7926,7 +7953,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,46 +7965,46 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>20558</v>
+        <v>20484</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>23046</v>
+        <v>20973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>43605</v>
+        <v>41457</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,46 +8016,46 @@
         <v>369</v>
       </c>
       <c r="D10" s="7">
-        <v>498739</v>
+        <v>497906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>689</v>
       </c>
       <c r="I10" s="7">
-        <v>530170</v>
+        <v>492752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>1058</v>
       </c>
       <c r="N10" s="7">
-        <v>1028909</v>
+        <v>990658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,7 +8067,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -8055,7 +8082,7 @@
         <v>715</v>
       </c>
       <c r="I11" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -8070,7 +8097,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1072514</v>
+        <v>1032115</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -8132,7 +8159,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,46 +8171,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>9500</v>
+        <v>9380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>20263</v>
+        <v>18993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>29764</v>
+        <v>28373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,46 +8222,46 @@
         <v>350</v>
       </c>
       <c r="D14" s="7">
-        <v>312740</v>
+        <v>306670</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>506</v>
       </c>
       <c r="I14" s="7">
-        <v>353021</v>
+        <v>330135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>856</v>
       </c>
       <c r="N14" s="7">
-        <v>665760</v>
+        <v>636805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,7 +8273,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -8261,7 +8288,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -8276,7 +8303,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -8308,7 +8335,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8338,7 +8365,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,46 +8377,46 @@
         <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>21122</v>
+        <v>20469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>23715</v>
+        <v>21690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>44837</v>
+        <v>42159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,46 +8428,46 @@
         <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>301118</v>
+        <v>292088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>569</v>
       </c>
       <c r="I18" s="7">
-        <v>404841</v>
+        <v>454028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>844</v>
       </c>
       <c r="N18" s="7">
-        <v>705959</v>
+        <v>746115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,7 +8479,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8467,7 +8494,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8482,7 +8509,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8514,7 +8541,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8529,7 +8556,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8544,7 +8571,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,46 +8583,46 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1511</v>
+        <v>1366</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>3575</v>
+        <v>3238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
       </c>
       <c r="N21" s="7">
-        <v>5086</v>
+        <v>4604</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8607,13 +8634,13 @@
         <v>277</v>
       </c>
       <c r="D22" s="7">
-        <v>195237</v>
+        <v>177376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -8622,31 +8649,31 @@
         <v>484</v>
       </c>
       <c r="I22" s="7">
-        <v>228328</v>
+        <v>205418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>761</v>
       </c>
       <c r="N22" s="7">
-        <v>423565</v>
+        <v>382794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,7 +8685,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8673,7 +8700,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8688,7 +8715,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8720,7 +8747,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8735,7 +8762,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8750,7 +8777,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8762,46 +8789,46 @@
         <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>7406</v>
+        <v>7052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>9347</v>
+        <v>8630</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
       </c>
       <c r="N25" s="7">
-        <v>16754</v>
+        <v>15682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8813,46 +8840,46 @@
         <v>361</v>
       </c>
       <c r="D26" s="7">
-        <v>269817</v>
+        <v>262584</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>443</v>
       </c>
       <c r="I26" s="7">
-        <v>266275</v>
+        <v>248426</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>804</v>
       </c>
       <c r="N26" s="7">
-        <v>536091</v>
+        <v>511010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8864,7 +8891,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -8879,7 +8906,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -8894,7 +8921,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -8956,7 +8983,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,46 +8995,46 @@
         <v>22</v>
       </c>
       <c r="D29" s="7">
-        <v>30822</v>
+        <v>31240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
       </c>
       <c r="I29" s="7">
-        <v>48941</v>
+        <v>45028</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>351</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>79763</v>
+        <v>76268</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,46 +9046,46 @@
         <v>577</v>
       </c>
       <c r="D30" s="7">
-        <v>596932</v>
+        <v>593039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H30" s="7">
         <v>907</v>
       </c>
       <c r="I30" s="7">
-        <v>755262</v>
+        <v>804237</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>1484</v>
       </c>
       <c r="N30" s="7">
-        <v>1352194</v>
+        <v>1397276</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,7 +9097,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -9085,7 +9112,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -9100,7 +9127,7 @@
         <v>1559</v>
       </c>
       <c r="N31" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -9132,7 +9159,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9147,7 +9174,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9162,7 +9189,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,46 +9201,46 @@
         <v>18</v>
       </c>
       <c r="D33" s="7">
-        <v>20505</v>
+        <v>17243</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>357</v>
+        <v>97</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
       </c>
       <c r="I33" s="7">
-        <v>22204</v>
+        <v>18524</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
       </c>
       <c r="N33" s="7">
-        <v>42709</v>
+        <v>35766</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,46 +9252,46 @@
         <v>744</v>
       </c>
       <c r="D34" s="7">
-        <v>838923</v>
+        <v>911477</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="H34" s="7">
         <v>1033</v>
       </c>
       <c r="I34" s="7">
-        <v>846230</v>
+        <v>699207</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>1777</v>
       </c>
       <c r="N34" s="7">
-        <v>1685153</v>
+        <v>1610686</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,7 +9303,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -9291,7 +9318,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -9306,7 +9333,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -9353,7 +9380,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9368,7 +9395,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9380,37 +9407,37 @@
         <v>95</v>
       </c>
       <c r="D37" s="7">
-        <v>114547</v>
+        <v>110924</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>209</v>
       </c>
       <c r="I37" s="7">
-        <v>158418</v>
+        <v>144810</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>378</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>304</v>
       </c>
       <c r="N37" s="7">
-        <v>272965</v>
+        <v>255734</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>379</v>
@@ -9419,7 +9446,7 @@
         <v>380</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,28 +9458,28 @@
         <v>3281</v>
       </c>
       <c r="D38" s="7">
-        <v>3270681</v>
+        <v>3348893</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>383</v>
       </c>
       <c r="H38" s="7">
         <v>5153</v>
       </c>
       <c r="I38" s="7">
-        <v>3648204</v>
+        <v>3516103</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>384</v>
+        <v>223</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>385</v>
@@ -9461,16 +9488,16 @@
         <v>8434</v>
       </c>
       <c r="N38" s="7">
-        <v>6918885</v>
+        <v>6864996</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>386</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,7 +9509,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9497,7 +9524,7 @@
         <v>5362</v>
       </c>
       <c r="I39" s="7">
-        <v>3806622</v>
+        <v>3660913</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9512,7 +9539,7 @@
         <v>8738</v>
       </c>
       <c r="N39" s="7">
-        <v>7191850</v>
+        <v>7120730</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
